--- a/Contributions/23017256/compare models.xlsx
+++ b/Contributions/23017256/compare models.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956C1B7C-D47D-44D8-B818-9B82858B8CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F78522D-8702-4EB4-8208-0D9E129CDB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5599BCCD-22F4-4861-96A4-05BD02B5DAC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12816" activeTab="2" xr2:uid="{5599BCCD-22F4-4861-96A4-05BD02B5DAC2}"/>
   </bookViews>
   <sheets>
     <sheet name="All_team_members" sheetId="1" r:id="rId1"/>
     <sheet name="Rashi" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="43">
   <si>
     <t>BERT</t>
   </si>
@@ -157,13 +158,22 @@
   </si>
   <si>
     <t>Security software</t>
+  </si>
+  <si>
+    <t>gpt</t>
+  </si>
+  <si>
+    <t>sentence transformers</t>
+  </si>
+  <si>
+    <t>Sentence-Transformers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,16 +193,65 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -200,22 +259,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,940 +622,1506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D202093-6A5D-41B1-837A-3E1F30B3D1D7}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.83099999999999996</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.82679999999999998</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="F3" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>0.70520000000000005</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>0.75170000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="M3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.74819999999999998</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.79190000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.80679999999999996</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.98599999999999999</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>0.72770000000000001</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="M4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.54959999999999998</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.73529999999999995</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.87250000000000005</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.76290000000000002</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0.99990000000000001</v>
       </c>
-      <c r="G5" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="G5" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>0.73550000000000004</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>0.70630000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="M5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.57689999999999997</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.8175</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.81669999999999998</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.78910000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.82489999999999997</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.72629999999999995</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
+      <c r="F6" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>0.71599999999999997</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>0.87629999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="M6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.61319999999999997</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.81330000000000002</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.76990000000000003</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G7" s="2">
         <v>0.99970000000000003</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>0.73250000000000004</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>0.85970000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="M7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.56850000000000001</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.6542</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.84219999999999995</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.77649999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>0.85940000000000005</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.77980000000000005</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0.99970000000000003</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>0.99990000000000001</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>0.67249999999999999</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>0.78210000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="M8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.7883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>0.82709999999999995</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.80879999999999996</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
+      <c r="F9" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>0.67300000000000004</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>0.80920000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="M9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.59889999999999999</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.73950000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>0.83099999999999996</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.82679999999999998</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
+      <c r="F10" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>0.71020000000000005</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>0.81130000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="M10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.74819999999999998</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.79190000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>0.82709999999999995</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.80879999999999996</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="F11" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>0.67300000000000004</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>0.80920000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="M11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.59889999999999999</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.73950000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>0.85319999999999996</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.74850000000000005</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G12" s="2">
         <v>0.99990000000000001</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="2"/>
+      <c r="I12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>0.73029999999999995</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>0.82940000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="M12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.58160000000000001</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.5968</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.84309999999999996</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>0.97009999999999996</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.79879999999999995</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
+      <c r="G13" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>1</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>0.72770000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="M13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.54959999999999998</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.73529999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>0.91639999999999999</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.78739999999999999</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>0.99990000000000001</v>
       </c>
-      <c r="G14" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
+      <c r="G14" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>0.69710000000000005</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>0.87409999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="M14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.59250000000000003</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.9526</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.71840000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>0.92700000000000005</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>0.81730000000000003</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>0.99990000000000001</v>
       </c>
-      <c r="G15" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
+      <c r="G15" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>0.74760000000000004</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>0.87590000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="M15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.56689999999999996</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.95909999999999995</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0.73650000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>0.8417</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>0.76980000000000004</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
+      <c r="F16" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>0.66459999999999997</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>0.82099999999999995</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="M16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.59319999999999995</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.86909999999999998</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.65239999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>0.84670000000000001</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>0.74099999999999999</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
+      <c r="F17" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>0.74750000000000005</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>0.79290000000000005</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="M17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.6946</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.58450000000000002</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0.71989999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>0.97009999999999996</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0.79879999999999995</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="G18" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>0.87609999999999999</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>0.84050000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="M18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.54959999999999998</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0.73529999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>0.77800000000000002</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>0.82210000000000005</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
+      <c r="F19" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>0.63139999999999996</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>0.72050000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="M19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.53549999999999998</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.53779999999999994</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0.71279999999999999</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0.62680000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>-0.84660000000000002</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>-0.75029999999999997</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G20" s="2">
         <v>0.99970000000000003</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
+      <c r="H20" s="2"/>
+      <c r="I20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>-0.64100000000000001</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>-0.56840000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="M20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.5786</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>0.82709999999999995</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.80879999999999996</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3" t="s">
+      <c r="F21" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>0.67300000000000004</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>0.80920000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="M21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.59889999999999999</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.73950000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>0.83620000000000005</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.76959999999999995</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
+      <c r="F22" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>0.75239999999999996</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>0.76039999999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="M22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.71840000000000004</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.76559999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>0.83620000000000005</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.79679999999999995</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3" t="s">
+      <c r="F23" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>0.75580000000000003</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>0.75790000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="M23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.51639999999999997</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.80120000000000002</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0.80769999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>0.8054</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>0.77459999999999996</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3" t="s">
+      <c r="F24" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>0.92969999999999997</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>0.69779999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="M24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.59389999999999998</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.75339999999999996</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0.8911</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0.79269999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>0.82709999999999995</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>0.80879999999999996</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="1"/>
+      <c r="E25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3" t="s">
+      <c r="F25" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>0.71509999999999996</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <v>0.74539999999999995</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="M25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.59889999999999999</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0.73950000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>0.83830000000000005</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>0.73670000000000002</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3" t="s">
+      <c r="F26" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>0.6895</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>0.73780000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="M26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.56920000000000004</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.64590000000000003</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0.77769999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>0.82699999999999996</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>0.80489999999999995</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>0.99960000000000004</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>0.99960000000000004</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3" t="s">
+      <c r="H27" s="2"/>
+      <c r="I27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>0.62670000000000003</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>0.56269999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="M27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.52290000000000003</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.53969999999999996</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0.78069999999999995</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0.68420000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>0.85370000000000001</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>0.76180000000000003</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3" t="s">
+      <c r="F28" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <v>0.67100000000000004</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>0.74009999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="M28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.56420000000000003</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.59409999999999996</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0.85870000000000002</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0.77490000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>0.79830000000000001</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>0.82969999999999999</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="1"/>
+      <c r="E29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3" t="s">
+      <c r="F29" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>0.71489999999999998</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>0.7218</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="M29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.51090000000000002</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.55520000000000003</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0.754</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0.74409999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>0.8478</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>0.76490000000000002</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="1"/>
+      <c r="E30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>0.99970000000000003</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>0.99970000000000003</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3" t="s">
+      <c r="H30" s="2"/>
+      <c r="I30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>0.77790000000000004</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <v>0.74809999999999999</v>
       </c>
+      <c r="M30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.48909999999999998</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0.72440000000000004</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0.65610000000000002</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1898,4 +2556,1173 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31959A10-8012-4DC0-A589-12C3FA500895}">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="H1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.70520000000000005</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.82679999999999998</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.75170000000000003</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.74819999999999998</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0.79190000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.72770000000000001</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.54959999999999998</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.73529999999999995</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.87250000000000005</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.73550000000000004</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.57689999999999997</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.81669999999999998</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.76290000000000002</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.70630000000000004</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.8175</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0.78910000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.82489999999999997</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.72629999999999995</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.87629999999999997</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.61319999999999997</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.81330000000000002</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.73250000000000004</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.56850000000000001</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.84219999999999995</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.76990000000000003</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0.85970000000000002</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.6542</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0.77649999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.77980000000000005</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0.78210000000000002</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0.7883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.59889999999999999</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.80879999999999996</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.80920000000000003</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0.73950000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.71020000000000005</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.82679999999999998</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.81130000000000002</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.74819999999999998</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0.79190000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.59889999999999999</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.80879999999999996</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0.80920000000000003</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0.73950000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.85319999999999996</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.73029999999999995</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.58160000000000001</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.84309999999999996</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0.82940000000000003</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0.5968</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.97009999999999996</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.79879999999999995</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.72770000000000001</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0.54959999999999998</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0.73529999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.69710000000000005</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.9526</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.78739999999999999</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.87409999999999999</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.59250000000000003</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0.71840000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.74760000000000004</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.95909999999999995</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.81730000000000003</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0.56689999999999996</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0.73650000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.8417</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.66459999999999997</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.86909999999999998</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.76980000000000004</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0.59319999999999995</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0.65239999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0.84670000000000001</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.6946</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0.79290000000000005</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0.58450000000000002</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0.71989999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0.97009999999999996</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0.87609999999999999</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.79879999999999995</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0.84050000000000002</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0.54959999999999998</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0.73529999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.53549999999999998</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0.71279999999999999</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.82210000000000005</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K20" s="11">
+        <v>0.72050000000000003</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0.53779999999999994</v>
+      </c>
+      <c r="M20" s="11">
+        <v>0.62680000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11">
+        <v>-0.84660000000000002</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D21" s="11">
+        <v>-0.64100000000000001</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="11">
+        <v>-0.75029999999999997</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="K21" s="11">
+        <v>-0.56840000000000002</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0.5786</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.59889999999999999</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0.80879999999999996</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0.80920000000000003</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="M22" s="11">
+        <v>0.73950000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.75239999999999996</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.71840000000000004</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.76039999999999996</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0.76559999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="11">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.75580000000000003</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.51639999999999997</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.79679999999999995</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0.75790000000000002</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.80120000000000002</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0.80769999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0.8054</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.59389999999999998</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0.8911</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0.77459999999999996</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0.75339999999999996</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0.79269999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0.71509999999999996</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.59889999999999999</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.80879999999999996</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0.74539999999999995</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0.73950000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="11">
+        <v>0.83830000000000005</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.6895</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.56920000000000004</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0.73670000000000002</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0.73780000000000001</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0.64590000000000003</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0.77769999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.62670000000000003</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.52290000000000003</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.78069999999999995</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.80489999999999995</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0.53969999999999996</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0.68420000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.56420000000000003</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.85870000000000002</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0.74009999999999998</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0.59409999999999996</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0.77490000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0.79830000000000001</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.71489999999999998</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.51090000000000002</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0.754</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0.82969999999999999</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0.7218</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0.55520000000000003</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0.74409999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="11">
+        <v>0.8478</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0.77790000000000004</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0.72440000000000004</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0.76490000000000002</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0.48909999999999998</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0.65610000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="5:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>